--- a/src/test/java/resources/ulkeler.xlsx
+++ b/src/test/java/resources/ulkeler.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="575">
   <si>
     <t xml:space="preserve">Ülke (İngilizce)</t>
   </si>
@@ -1741,6 +1741,12 @@
   </si>
   <si>
     <t xml:space="preserve">Zimbabve</t>
+  </si>
+  <si>
+    <t>NUFUS</t>
+  </si>
+  <si>
+    <t>1000000</t>
   </si>
 </sst>
 </file>
@@ -2015,7 +2021,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D191"/>
+  <dimension ref="A1:E191"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D23" activeCellId="0" sqref="D23"/>
@@ -2023,7 +2029,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="1" style="0" width="25.71"/>
+    <col min="1" max="4" customWidth="true" hidden="false" style="0" width="25.71" collapsed="true" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2039,6 +2045,9 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>573</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
@@ -2066,6 +2075,9 @@
       </c>
       <c r="D3" s="6" t="s">
         <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>574</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
